--- a/build/downloads/D&B TEMPLATE1.xlsx
+++ b/build/downloads/D&B TEMPLATE1.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="13">
   <si>
     <t>ITEM</t>
   </si>
@@ -108,82 +108,7 @@
     <t>NEXT DUE</t>
   </si>
   <si>
-    <t>dent</t>
-  </si>
-  <si>
-    <t>dent on frame 3</t>
-  </si>
-  <si>
-    <t>fr 3 - 4</t>
-  </si>
-  <si>
-    <t>str 3-6</t>
-  </si>
-  <si>
-    <t>nacelle</t>
-  </si>
-  <si>
-    <t>4*5*6</t>
-  </si>
-  <si>
-    <t>SRM 5724156</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>gerg</t>
-  </si>
-  <si>
-    <t>reg</t>
-  </si>
-  <si>
-    <t>gerer</t>
-  </si>
-  <si>
-    <t>erg</t>
-  </si>
-  <si>
-    <t>egr</t>
-  </si>
-  <si>
-    <t>eg</t>
-  </si>
-  <si>
-    <t>ñkernnv</t>
-  </si>
-  <si>
-    <t>ññernb</t>
-  </si>
-  <si>
-    <t>vnwñrnv</t>
-  </si>
-  <si>
-    <t>ñwrng</t>
-  </si>
-  <si>
-    <t>ñwren</t>
-  </si>
-  <si>
-    <t>vñrewn</t>
-  </si>
-  <si>
-    <t>vñwrlnv</t>
-  </si>
-  <si>
-    <t>vñrlnv</t>
-  </si>
-  <si>
-    <t>vñrln</t>
-  </si>
-  <si>
-    <t>vñwlne</t>
-  </si>
-  <si>
-    <t>vñwlen</t>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -191,9 +116,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -241,14 +166,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -304,21 +221,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -334,18 +236,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -359,6 +262,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,6 +292,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,19 +358,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,19 +388,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,7 +406,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,7 +436,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,19 +454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,25 +466,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,19 +508,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,15 +651,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -752,10 +668,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -823,151 +737,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2038,7 +1963,7 @@
   <dimension ref="A2:Z988"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:R7"/>
+      <selection activeCell="B4" sqref="B4:R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -2114,40 +2039,40 @@
         <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K3" s="19"/>
       <c r="L3" s="6"/>
       <c r="M3" s="8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="S3" s="21"/>
       <c r="T3" s="21"/>
@@ -2162,44 +2087,44 @@
       <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>21</v>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>22</v>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="9" t="s">
-        <v>23</v>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>24</v>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>24</v>
+      <c r="G4" s="7" t="s">
+        <v>12</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>25</v>
+      <c r="H4" s="8" t="s">
+        <v>12</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12" t="s">
-        <v>26</v>
+      <c r="I4" s="6"/>
+      <c r="J4" s="8" t="s">
+        <v>12</v>
       </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="12" t="s">
-        <v>25</v>
+      <c r="K4" s="19"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8" t="s">
+        <v>12</v>
       </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="12" t="s">
-        <v>25</v>
+      <c r="N4" s="6"/>
+      <c r="O4" s="8" t="s">
+        <v>12</v>
       </c>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="9" t="s">
-        <v>25</v>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="4" t="s">
+        <v>12</v>
       </c>
-      <c r="R4" s="9" t="s">
-        <v>25</v>
+      <c r="R4" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="S4" s="21"/>
       <c r="T4" s="21"/>
@@ -2214,44 +2139,44 @@
       <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>27</v>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>28</v>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="9" t="s">
-        <v>29</v>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>30</v>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>31</v>
+      <c r="G5" s="7" t="s">
+        <v>12</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>32</v>
+      <c r="H5" s="8" t="s">
+        <v>12</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12" t="s">
-        <v>33</v>
+      <c r="I5" s="6"/>
+      <c r="J5" s="8" t="s">
+        <v>12</v>
       </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="12" t="s">
-        <v>34</v>
+      <c r="K5" s="19"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8" t="s">
+        <v>12</v>
       </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="12" t="s">
-        <v>35</v>
+      <c r="N5" s="6"/>
+      <c r="O5" s="8" t="s">
+        <v>12</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="9" t="s">
-        <v>36</v>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="4" t="s">
+        <v>12</v>
       </c>
-      <c r="R5" s="9" t="s">
-        <v>37</v>
+      <c r="R5" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="S5" s="21"/>
       <c r="T5" s="21"/>
@@ -2270,40 +2195,40 @@
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K6" s="19"/>
       <c r="L6" s="6"/>
       <c r="M6" s="8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="S6" s="21"/>
       <c r="T6" s="21"/>
@@ -2318,44 +2243,44 @@
       <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>21</v>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>22</v>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="9" t="s">
-        <v>23</v>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>24</v>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>24</v>
+      <c r="G7" s="7" t="s">
+        <v>12</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>25</v>
+      <c r="H7" s="8" t="s">
+        <v>12</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="12" t="s">
-        <v>26</v>
+      <c r="I7" s="6"/>
+      <c r="J7" s="8" t="s">
+        <v>12</v>
       </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="12" t="s">
-        <v>25</v>
+      <c r="K7" s="19"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8" t="s">
+        <v>12</v>
       </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="12" t="s">
-        <v>25</v>
+      <c r="N7" s="6"/>
+      <c r="O7" s="8" t="s">
+        <v>12</v>
       </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="9" t="s">
-        <v>25</v>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="4" t="s">
+        <v>12</v>
       </c>
-      <c r="R7" s="9" t="s">
-        <v>25</v>
+      <c r="R7" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="S7" s="21"/>
       <c r="T7" s="21"/>
@@ -2367,24 +2292,48 @@
       <c r="Z7" s="21"/>
     </row>
     <row r="8" customHeight="1" spans="1:26">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="S8" s="21"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
@@ -2395,24 +2344,48 @@
       <c r="Z8" s="21"/>
     </row>
     <row r="9" customHeight="1" spans="1:26">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="O9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="S9" s="21"/>
       <c r="T9" s="21"/>
       <c r="U9" s="21"/>
@@ -2423,24 +2396,48 @@
       <c r="Z9" s="21"/>
     </row>
     <row r="10" customHeight="1" spans="1:26">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
       <c r="U10" s="21"/>
@@ -2451,24 +2448,48 @@
       <c r="Z10" s="21"/>
     </row>
     <row r="11" customHeight="1" spans="1:26">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="19"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="S11" s="21"/>
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
@@ -2479,24 +2500,48 @@
       <c r="Z11" s="21"/>
     </row>
     <row r="12" customHeight="1" spans="1:26">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="19"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="6"/>
+      <c r="O12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="S12" s="21"/>
       <c r="T12" s="21"/>
       <c r="U12" s="21"/>

--- a/build/downloads/D&B TEMPLATE1.xlsx
+++ b/build/downloads/D&B TEMPLATE1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JEFE DE ING. INDUSTR\Documents\CODE\aircraftDB\public\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JEFE DE ING. INDUSTR\Documents\CODE\learjet60317\public\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C3CB05-DC74-46AB-A8D3-4BA68BFC065B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500EB380-829E-49D7-9899-CDE2683B620C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-3480" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D&amp;B INDEX" sheetId="29" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="314">
   <si>
     <t>ITEM</t>
   </si>
@@ -206,15 +206,9 @@
     <t xml:space="preserve">Wing </t>
   </si>
   <si>
-    <t xml:space="preserve">Peeling Paint on leading edge </t>
-  </si>
-  <si>
     <t xml:space="preserve">Peeling Paint  on leading edge </t>
   </si>
   <si>
-    <t xml:space="preserve">Peeling Paint in Winglet Leading Edge </t>
-  </si>
-  <si>
     <t>Winglet</t>
   </si>
   <si>
@@ -368,9 +362,6 @@
     <t>BL(3,57-19,4)L</t>
   </si>
   <si>
-    <t>Peeling Paint  in Inlet Cowl left</t>
-  </si>
-  <si>
     <t>NAC STA 0,00-80,25L</t>
   </si>
   <si>
@@ -380,9 +371,6 @@
     <t xml:space="preserve">Fuselage </t>
   </si>
   <si>
-    <t>Peeling Paint in Left lower Pylon zone</t>
-  </si>
-  <si>
     <t>Pylon Assembly</t>
   </si>
   <si>
@@ -560,9 +548,6 @@
     <t>WS (233,102 -213,602)</t>
   </si>
   <si>
-    <t>WS (213,602-18,020R)</t>
-  </si>
-  <si>
     <t>WS (181,020-157,480)</t>
   </si>
   <si>
@@ -593,15 +578,6 @@
     <t>FR (11-12)</t>
   </si>
   <si>
-    <t>FR (14-15)</t>
-  </si>
-  <si>
-    <t>WS (53,400-92,520)</t>
-  </si>
-  <si>
-    <t>WS (0,00-53,400)</t>
-  </si>
-  <si>
     <t>FR (11-12)R</t>
   </si>
   <si>
@@ -644,9 +620,6 @@
     <t>STR 8L</t>
   </si>
   <si>
-    <t>STR (8-6)L</t>
-  </si>
-  <si>
     <t>STR (6-4)L</t>
   </si>
   <si>
@@ -687,13 +660,376 @@
   </si>
   <si>
     <t>Spar (9-10)R</t>
+  </si>
+  <si>
+    <t>Dent Lower Tail cone RH</t>
+  </si>
+  <si>
+    <t>FR (44-42)</t>
+  </si>
+  <si>
+    <t>Lower Zone</t>
+  </si>
+  <si>
+    <t>L=4,5 H= 2,3 D=0,77 DR=220</t>
+  </si>
+  <si>
+    <t>SRM 53-33-00</t>
+  </si>
+  <si>
+    <t>L=3.9 H= 2.8 D=0,2 DR=190</t>
+  </si>
+  <si>
+    <t>Dent Lower Tail cone LH</t>
+  </si>
+  <si>
+    <t>L=2.4 H= 1.7 D=0,05 DR=220</t>
+  </si>
+  <si>
+    <t>WS (213,602-181,020R)</t>
+  </si>
+  <si>
+    <t>spar 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR (11-12) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STR (6-4)L </t>
+  </si>
+  <si>
+    <t>WS (53,040-92,520)</t>
+  </si>
+  <si>
+    <t>WS (0,00-53,040)R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peeling Paint  in Inlet Cowl left </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peeling Paint  </t>
+  </si>
+  <si>
+    <t>Peeling Paint in Left lower Pylon zone close to TE</t>
+  </si>
+  <si>
+    <t>Peeling Paint in Left lower Pylon zone close to LE</t>
+  </si>
+  <si>
+    <t>Peeling Paint Foward fuselage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peeling Paint on Trailing edge </t>
+  </si>
+  <si>
+    <t>Peeling Paint in Winglet Leading Edge  (inner winglet)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47P </t>
+  </si>
+  <si>
+    <t>Peeling Paint forward fuselage RH</t>
+  </si>
+  <si>
+    <t>FR 5</t>
+  </si>
+  <si>
+    <t>STR 8 R</t>
+  </si>
+  <si>
+    <t>Forward fuselage</t>
+  </si>
+  <si>
+    <t>48P</t>
+  </si>
+  <si>
+    <t>FR 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49P </t>
+  </si>
+  <si>
+    <t>FR 3-2</t>
+  </si>
+  <si>
+    <t>50P</t>
+  </si>
+  <si>
+    <t>FR 2</t>
+  </si>
+  <si>
+    <t>51P</t>
+  </si>
+  <si>
+    <t>FR 1-2</t>
+  </si>
+  <si>
+    <t>FR 15</t>
+  </si>
+  <si>
+    <t>STR 3</t>
+  </si>
+  <si>
+    <t>53P</t>
+  </si>
+  <si>
+    <t>STR 4</t>
+  </si>
+  <si>
+    <t>54P</t>
+  </si>
+  <si>
+    <t>Peeling paint emergency exit/baggage</t>
+  </si>
+  <si>
+    <t>FR 22</t>
+  </si>
+  <si>
+    <t>55P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peeling paint wing footrest </t>
+  </si>
+  <si>
+    <t>spar 1-2</t>
+  </si>
+  <si>
+    <t>56P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peeling paint wing footrest </t>
+  </si>
+  <si>
+    <t>57P</t>
+  </si>
+  <si>
+    <t>spar 2</t>
+  </si>
+  <si>
+    <t>58P</t>
+  </si>
+  <si>
+    <t>Peeling trailing edge RH</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>wing</t>
+  </si>
+  <si>
+    <t>59P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peeling paint upper flap zone RH </t>
+  </si>
+  <si>
+    <t>FS 37.85</t>
+  </si>
+  <si>
+    <t>60P</t>
+  </si>
+  <si>
+    <t>Peeling Paint lower Pylon zone RH</t>
+  </si>
+  <si>
+    <t>61P</t>
+  </si>
+  <si>
+    <t>62P</t>
+  </si>
+  <si>
+    <t>63P</t>
+  </si>
+  <si>
+    <t>Peeling Paint in lower wing area close to wing fuel tank access door</t>
+  </si>
+  <si>
+    <t>64P</t>
+  </si>
+  <si>
+    <t>65P</t>
+  </si>
+  <si>
+    <t>66P</t>
+  </si>
+  <si>
+    <t>WS (157,480-125.00)</t>
+  </si>
+  <si>
+    <t>Spar 4-5 R</t>
+  </si>
+  <si>
+    <t>68P</t>
+  </si>
+  <si>
+    <t>Peeling Paint in lower wing area RH</t>
+  </si>
+  <si>
+    <t>WS (92.520-53.04)</t>
+  </si>
+  <si>
+    <t>spar 3-4 R</t>
+  </si>
+  <si>
+    <t>69P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peeling paint lower flap LH </t>
+  </si>
+  <si>
+    <t>Flap ST(104,2-95,3)</t>
+  </si>
+  <si>
+    <t>70P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peeling paint lower flap are RH </t>
+  </si>
+  <si>
+    <t>71P</t>
+  </si>
+  <si>
+    <t>Peeling paint lower inlet cowl RH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engine Inlet Cowl </t>
+  </si>
+  <si>
+    <t>72P</t>
+  </si>
+  <si>
+    <t>Peeling Paint Vertical  Stabilizer LH</t>
+  </si>
+  <si>
+    <t>WL(86.00-78.00)</t>
+  </si>
+  <si>
+    <t>Spar 5-4 L</t>
+  </si>
+  <si>
+    <t>Vertical Stabilizer</t>
+  </si>
+  <si>
+    <t>73P</t>
+  </si>
+  <si>
+    <t>WL(95,00-86.00)</t>
+  </si>
+  <si>
+    <t>Spar 1-2 L</t>
+  </si>
+  <si>
+    <t>74P</t>
+  </si>
+  <si>
+    <t>WL (lower canted rib - 78.00)</t>
+  </si>
+  <si>
+    <t>75P</t>
+  </si>
+  <si>
+    <t>Peeling paint at fuselage under pylon cowl assembly LH</t>
+  </si>
+  <si>
+    <t>fr(36-38)</t>
+  </si>
+  <si>
+    <t>ST 6 L</t>
+  </si>
+  <si>
+    <t>76P</t>
+  </si>
+  <si>
+    <t>Peeling paint upper inlet cowl LH</t>
+  </si>
+  <si>
+    <t>77P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peeling paint upper inlet cowl LH </t>
+  </si>
+  <si>
+    <t>78P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peeling Paint upper Inlet Cowl LH </t>
+  </si>
+  <si>
+    <t>79P</t>
+  </si>
+  <si>
+    <t>Peeling Paint forward fuselage LH</t>
+  </si>
+  <si>
+    <t>FR 9</t>
+  </si>
+  <si>
+    <t>STR 8 L</t>
+  </si>
+  <si>
+    <t>80P</t>
+  </si>
+  <si>
+    <t>FR 7</t>
+  </si>
+  <si>
+    <t>81P</t>
+  </si>
+  <si>
+    <t>Peeling Paint forward fuselage LH upper</t>
+  </si>
+  <si>
+    <t>FR 4-6</t>
+  </si>
+  <si>
+    <t>upper zone Foward fuselage</t>
+  </si>
+  <si>
+    <t>82P</t>
+  </si>
+  <si>
+    <t>FR 4-7</t>
+  </si>
+  <si>
+    <t>upper zone</t>
+  </si>
+  <si>
+    <t>83P</t>
+  </si>
+  <si>
+    <t>FR 4-8</t>
+  </si>
+  <si>
+    <t>84P</t>
+  </si>
+  <si>
+    <t>FR 4-9</t>
+  </si>
+  <si>
+    <t>85P</t>
+  </si>
+  <si>
+    <t>Peeling Paint close to wing fuel tank LH</t>
+  </si>
+  <si>
+    <t>86P</t>
+  </si>
+  <si>
+    <t>Peeling Paint lower wing aerea LH</t>
+  </si>
+  <si>
+    <t>ws181,020</t>
+  </si>
+  <si>
+    <t>SPAR 8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -734,6 +1070,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -835,7 +1179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -871,6 +1215,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3290,7 +3637,7 @@
   <dimension ref="A1:T992"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -3368,7 +3715,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>25</v>
@@ -3414,10 +3761,10 @@
         <v>31</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>26</v>
@@ -3457,13 +3804,13 @@
         <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>37</v>
@@ -3481,7 +3828,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>13</v>
@@ -3503,22 +3850,22 @@
         <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>13</v>
@@ -3549,22 +3896,22 @@
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>13</v>
@@ -3595,22 +3942,22 @@
         <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>13</v>
@@ -3641,22 +3988,22 @@
         <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>13</v>
@@ -3687,22 +4034,22 @@
         <v>12</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>13</v>
@@ -3733,22 +4080,22 @@
         <v>12</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>13</v>
@@ -3779,19 +4126,19 @@
         <v>12</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>28</v>
@@ -3825,19 +4172,19 @@
         <v>12</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>28</v>
@@ -3849,7 +4196,7 @@
         <v>13</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>13</v>
@@ -3864,41 +4211,41 @@
       <c r="T12" s="7"/>
     </row>
     <row r="13" spans="1:20" ht="15" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>23</v>
+      <c r="A13" s="4">
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>23</v>
+        <v>194</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>23</v>
+        <v>197</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
@@ -3909,30 +4256,30 @@
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
     </row>
-    <row r="14" spans="1:20" ht="22.5">
-      <c r="A14" s="4" t="s">
-        <v>104</v>
+    <row r="14" spans="1:20" ht="15.75">
+      <c r="A14" s="4">
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>13</v>
@@ -3941,7 +4288,7 @@
         <v>13</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>13</v>
@@ -3956,29 +4303,29 @@
       <c r="T14" s="7"/>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>105</v>
+      <c r="A15" s="4">
+        <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>50</v>
+        <v>199</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>13</v>
+        <v>70</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>200</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>13</v>
@@ -3987,7 +4334,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>13</v>
@@ -4003,40 +4350,40 @@
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
@@ -4047,21 +4394,21 @@
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="22.5">
       <c r="A17" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>37</v>
@@ -4095,19 +4442,19 @@
     </row>
     <row r="18" spans="1:20" ht="15.75">
       <c r="A18" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>55</v>
+        <v>202</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>37</v>
@@ -4141,19 +4488,19 @@
     </row>
     <row r="19" spans="1:20" ht="15" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>37</v>
@@ -4187,19 +4534,19 @@
     </row>
     <row r="20" spans="1:20" ht="15" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>37</v>
@@ -4233,22 +4580,22 @@
     </row>
     <row r="21" spans="1:20" ht="15" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>13</v>
@@ -4279,22 +4626,22 @@
     </row>
     <row r="22" spans="1:20" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>13</v>
@@ -4325,22 +4672,22 @@
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>13</v>
@@ -4371,22 +4718,22 @@
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>166</v>
+        <v>64</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>13</v>
@@ -4417,22 +4764,22 @@
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>13</v>
@@ -4463,22 +4810,22 @@
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>185</v>
+        <v>23</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>13</v>
@@ -4509,22 +4856,22 @@
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>186</v>
+        <v>23</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>13</v>
@@ -4555,19 +4902,19 @@
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>37</v>
@@ -4601,22 +4948,22 @@
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>13</v>
@@ -4647,22 +4994,22 @@
     </row>
     <row r="30" spans="1:20" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>13</v>
@@ -4685,22 +5032,22 @@
     </row>
     <row r="31" spans="1:20" ht="15" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>188</v>
+        <v>49</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>13</v>
@@ -4731,19 +5078,19 @@
     </row>
     <row r="32" spans="1:20" ht="15" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>171</v>
+        <v>86</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>189</v>
+        <v>87</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>37</v>
@@ -4777,22 +5124,22 @@
     </row>
     <row r="33" spans="1:20" ht="15" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>13</v>
@@ -4823,22 +5170,22 @@
     </row>
     <row r="34" spans="1:20" ht="15" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>13</v>
@@ -4869,19 +5216,19 @@
     </row>
     <row r="35" spans="1:20" ht="15" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>37</v>
@@ -4915,19 +5262,19 @@
     </row>
     <row r="36" spans="1:20" ht="15" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>92</v>
+        <v>206</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>37</v>
@@ -4961,19 +5308,19 @@
     </row>
     <row r="37" spans="1:20" ht="15" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>37</v>
@@ -5007,19 +5354,19 @@
     </row>
     <row r="38" spans="1:20" ht="15" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>37</v>
@@ -5053,19 +5400,19 @@
     </row>
     <row r="39" spans="1:20" ht="15" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C39" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="E39" s="4" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>37</v>
@@ -5099,19 +5446,19 @@
     </row>
     <row r="40" spans="1:20" ht="15" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C40" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="E40" s="4" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>37</v>
@@ -5145,22 +5492,22 @@
     </row>
     <row r="41" spans="1:20" ht="15" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>13</v>
@@ -5191,22 +5538,22 @@
     </row>
     <row r="42" spans="1:20" ht="15" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>13</v>
@@ -5237,22 +5584,22 @@
     </row>
     <row r="43" spans="1:20" ht="15" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>173</v>
+        <v>90</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>13</v>
@@ -5283,22 +5630,22 @@
     </row>
     <row r="44" spans="1:20" ht="15" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>13</v>
@@ -5329,22 +5676,22 @@
     </row>
     <row r="45" spans="1:20" ht="15" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>99</v>
+        <v>207</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>13</v>
@@ -5375,22 +5722,22 @@
     </row>
     <row r="46" spans="1:20" ht="15" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>101</v>
+        <v>208</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>13</v>
@@ -5421,22 +5768,22 @@
     </row>
     <row r="47" spans="1:20" ht="15" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>15</v>
+        <v>209</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>13</v>
@@ -5467,22 +5814,22 @@
     </row>
     <row r="48" spans="1:20" ht="15" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>197</v>
+        <v>23</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>13</v>
@@ -5513,22 +5860,22 @@
     </row>
     <row r="49" spans="1:20" ht="15" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>13</v>
@@ -5559,19 +5906,19 @@
     </row>
     <row r="50" spans="1:20" ht="15" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>175</v>
+        <v>99</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>199</v>
+        <v>98</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>16</v>
@@ -5605,22 +5952,22 @@
     </row>
     <row r="51" spans="1:20" ht="15" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>18</v>
+        <v>211</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>13</v>
@@ -5651,22 +5998,22 @@
     </row>
     <row r="52" spans="1:20" ht="15" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>21</v>
+        <v>211</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>23</v>
+        <v>189</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>13</v>
@@ -5697,22 +6044,22 @@
     </row>
     <row r="53" spans="1:20" ht="15" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>33</v>
+        <v>211</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>13</v>
@@ -5741,24 +6088,24 @@
       <c r="S53" s="7"/>
       <c r="T53" s="7"/>
     </row>
-    <row r="54" spans="1:20" ht="22.5">
+    <row r="54" spans="1:20" ht="15.75">
       <c r="A54" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>13</v>
@@ -5789,22 +6136,22 @@
     </row>
     <row r="55" spans="1:20" ht="15" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>179</v>
+        <v>22</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>13</v>
@@ -5835,22 +6182,22 @@
     </row>
     <row r="56" spans="1:20" ht="15" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>13</v>
@@ -5881,19 +6228,19 @@
     </row>
     <row r="57" spans="1:20" ht="15" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>37</v>
@@ -5927,22 +6274,22 @@
     </row>
     <row r="58" spans="1:20" ht="15" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>13</v>
@@ -5971,21 +6318,21 @@
       <c r="S58" s="7"/>
       <c r="T58" s="7"/>
     </row>
-    <row r="59" spans="1:20" ht="22.5">
+    <row r="59" spans="1:20" ht="15.75">
       <c r="A59" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>46</v>
+        <v>212</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>37</v>
@@ -6018,6 +6365,42 @@
       <c r="T59" s="7"/>
     </row>
     <row r="60" spans="1:20" ht="15" customHeight="1">
+      <c r="A60" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L60" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
       <c r="O60" s="7"/>
@@ -6028,6 +6411,42 @@
       <c r="T60" s="7"/>
     </row>
     <row r="61" spans="1:20" ht="15" customHeight="1">
+      <c r="A61" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
       <c r="O61" s="7"/>
@@ -6038,6 +6457,42 @@
       <c r="T61" s="7"/>
     </row>
     <row r="62" spans="1:20" ht="15" customHeight="1">
+      <c r="A62" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
       <c r="O62" s="7"/>
@@ -6048,6 +6503,42 @@
       <c r="T62" s="7"/>
     </row>
     <row r="63" spans="1:20" ht="15" customHeight="1">
+      <c r="A63" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
       <c r="O63" s="7"/>
@@ -6058,6 +6549,42 @@
       <c r="T63" s="7"/>
     </row>
     <row r="64" spans="1:20" ht="15" customHeight="1">
+      <c r="A64" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L64" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
       <c r="O64" s="7"/>
@@ -6068,6 +6595,42 @@
       <c r="T64" s="7"/>
     </row>
     <row r="65" spans="1:20" ht="15" customHeight="1">
+      <c r="A65" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
       <c r="O65" s="7"/>
@@ -6078,6 +6641,42 @@
       <c r="T65" s="7"/>
     </row>
     <row r="66" spans="1:20" ht="15" customHeight="1">
+      <c r="A66" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L66" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
       <c r="O66" s="7"/>
@@ -6088,6 +6687,42 @@
       <c r="T66" s="7"/>
     </row>
     <row r="67" spans="1:20" ht="15" customHeight="1">
+      <c r="A67" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
       <c r="O67" s="7"/>
@@ -6098,6 +6733,42 @@
       <c r="T67" s="7"/>
     </row>
     <row r="68" spans="1:20" ht="15" customHeight="1">
+      <c r="A68" s="8">
+        <v>52</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K68" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L68" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
       <c r="O68" s="7"/>
@@ -6108,6 +6779,42 @@
       <c r="T68" s="7"/>
     </row>
     <row r="69" spans="1:20" ht="15" customHeight="1">
+      <c r="A69" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
       <c r="O69" s="7"/>
@@ -6118,6 +6825,42 @@
       <c r="T69" s="7"/>
     </row>
     <row r="70" spans="1:20" ht="15" customHeight="1">
+      <c r="A70" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J70" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L70" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
       <c r="O70" s="7"/>
@@ -6128,6 +6871,42 @@
       <c r="T70" s="7"/>
     </row>
     <row r="71" spans="1:20" ht="15" customHeight="1">
+      <c r="A71" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
       <c r="O71" s="7"/>
@@ -6138,6 +6917,42 @@
       <c r="T71" s="7"/>
     </row>
     <row r="72" spans="1:20" ht="15" customHeight="1">
+      <c r="A72" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J72" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K72" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L72" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="M72" s="7"/>
       <c r="N72" s="7"/>
       <c r="O72" s="7"/>
@@ -6148,18 +6963,42 @@
       <c r="T72" s="7"/>
     </row>
     <row r="73" spans="1:20" ht="15" customHeight="1">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
+      <c r="A73" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L73" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="M73" s="7"/>
       <c r="N73" s="7"/>
       <c r="O73" s="7"/>
@@ -6170,18 +7009,42 @@
       <c r="T73" s="7"/>
     </row>
     <row r="74" spans="1:20" ht="15" customHeight="1">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
+      <c r="A74" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L74" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
       <c r="O74" s="7"/>
@@ -6192,18 +7055,42 @@
       <c r="T74" s="7"/>
     </row>
     <row r="75" spans="1:20" ht="15" customHeight="1">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
+      <c r="A75" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="M75" s="7"/>
       <c r="N75" s="7"/>
       <c r="O75" s="7"/>
@@ -6214,18 +7101,42 @@
       <c r="T75" s="7"/>
     </row>
     <row r="76" spans="1:20" ht="15" customHeight="1">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
+      <c r="A76" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L76" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="M76" s="7"/>
       <c r="N76" s="7"/>
       <c r="O76" s="7"/>
@@ -6236,18 +7147,42 @@
       <c r="T76" s="7"/>
     </row>
     <row r="77" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
+      <c r="A77" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L77" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="M77" s="7"/>
       <c r="N77" s="7"/>
       <c r="O77" s="7"/>
@@ -6258,18 +7193,42 @@
       <c r="T77" s="7"/>
     </row>
     <row r="78" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
+      <c r="A78" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L78" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="M78" s="7"/>
       <c r="N78" s="7"/>
       <c r="O78" s="7"/>
@@ -6280,18 +7239,42 @@
       <c r="T78" s="7"/>
     </row>
     <row r="79" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
+      <c r="A79" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L79" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="M79" s="7"/>
       <c r="N79" s="7"/>
       <c r="O79" s="7"/>
@@ -6302,18 +7285,42 @@
       <c r="T79" s="7"/>
     </row>
     <row r="80" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
+      <c r="A80" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L80" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="M80" s="7"/>
       <c r="N80" s="7"/>
       <c r="O80" s="7"/>
@@ -6324,18 +7331,42 @@
       <c r="T80" s="7"/>
     </row>
     <row r="81" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
+      <c r="A81" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L81" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="M81" s="7"/>
       <c r="N81" s="7"/>
       <c r="O81" s="7"/>
@@ -6346,18 +7377,42 @@
       <c r="T81" s="7"/>
     </row>
     <row r="82" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="7"/>
+      <c r="A82" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L82" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="M82" s="7"/>
       <c r="N82" s="7"/>
       <c r="O82" s="7"/>
@@ -6368,18 +7423,42 @@
       <c r="T82" s="7"/>
     </row>
     <row r="83" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="7"/>
+      <c r="A83" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L83" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="M83" s="7"/>
       <c r="N83" s="7"/>
       <c r="O83" s="7"/>
@@ -6390,18 +7469,42 @@
       <c r="T83" s="7"/>
     </row>
     <row r="84" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="7"/>
+      <c r="A84" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L84" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="M84" s="7"/>
       <c r="N84" s="7"/>
       <c r="O84" s="7"/>
@@ -6412,18 +7515,42 @@
       <c r="T84" s="7"/>
     </row>
     <row r="85" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
+      <c r="A85" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L85" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="M85" s="7"/>
       <c r="N85" s="7"/>
       <c r="O85" s="7"/>
@@ -6434,18 +7561,42 @@
       <c r="T85" s="7"/>
     </row>
     <row r="86" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7"/>
+      <c r="A86" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K86" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L86" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="M86" s="7"/>
       <c r="N86" s="7"/>
       <c r="O86" s="7"/>
@@ -6456,18 +7607,42 @@
       <c r="T86" s="7"/>
     </row>
     <row r="87" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7"/>
+      <c r="A87" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L87" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="M87" s="7"/>
       <c r="N87" s="7"/>
       <c r="O87" s="7"/>
@@ -6478,18 +7653,42 @@
       <c r="T87" s="7"/>
     </row>
     <row r="88" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7"/>
+      <c r="A88" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L88" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="M88" s="7"/>
       <c r="N88" s="7"/>
       <c r="O88" s="7"/>
@@ -6500,18 +7699,42 @@
       <c r="T88" s="7"/>
     </row>
     <row r="89" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="7"/>
+      <c r="A89" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L89" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="M89" s="7"/>
       <c r="N89" s="7"/>
       <c r="O89" s="7"/>
@@ -6522,18 +7745,42 @@
       <c r="T89" s="7"/>
     </row>
     <row r="90" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="7"/>
+      <c r="A90" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L90" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="M90" s="7"/>
       <c r="N90" s="7"/>
       <c r="O90" s="7"/>
@@ -6544,18 +7791,42 @@
       <c r="T90" s="7"/>
     </row>
     <row r="91" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="7"/>
+      <c r="A91" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L91" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="M91" s="7"/>
       <c r="N91" s="7"/>
       <c r="O91" s="7"/>
@@ -6566,18 +7837,42 @@
       <c r="T91" s="7"/>
     </row>
     <row r="92" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
+      <c r="A92" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K92" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L92" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="M92" s="7"/>
       <c r="N92" s="7"/>
       <c r="O92" s="7"/>
@@ -6588,18 +7883,42 @@
       <c r="T92" s="7"/>
     </row>
     <row r="93" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
+      <c r="A93" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L93" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="M93" s="7"/>
       <c r="N93" s="7"/>
       <c r="O93" s="7"/>
@@ -6610,18 +7929,42 @@
       <c r="T93" s="7"/>
     </row>
     <row r="94" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
+      <c r="A94" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J94" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K94" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L94" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="M94" s="7"/>
       <c r="N94" s="7"/>
       <c r="O94" s="7"/>
@@ -6632,18 +7975,42 @@
       <c r="T94" s="7"/>
     </row>
     <row r="95" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="7"/>
+      <c r="A95" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L95" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="M95" s="7"/>
       <c r="N95" s="7"/>
       <c r="O95" s="7"/>
@@ -6654,18 +8021,42 @@
       <c r="T95" s="7"/>
     </row>
     <row r="96" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="7"/>
+      <c r="A96" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J96" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K96" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L96" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="M96" s="7"/>
       <c r="N96" s="7"/>
       <c r="O96" s="7"/>
@@ -6676,18 +8067,42 @@
       <c r="T96" s="7"/>
     </row>
     <row r="97" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="7"/>
+      <c r="A97" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L97" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="M97" s="7"/>
       <c r="N97" s="7"/>
       <c r="O97" s="7"/>
@@ -6698,18 +8113,42 @@
       <c r="T97" s="7"/>
     </row>
     <row r="98" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="7"/>
+      <c r="A98" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L98" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="M98" s="7"/>
       <c r="N98" s="7"/>
       <c r="O98" s="7"/>
@@ -6720,18 +8159,42 @@
       <c r="T98" s="7"/>
     </row>
     <row r="99" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="7"/>
-      <c r="L99" s="7"/>
+      <c r="A99" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L99" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="M99" s="7"/>
       <c r="N99" s="7"/>
       <c r="O99" s="7"/>
@@ -6742,18 +8205,42 @@
       <c r="T99" s="7"/>
     </row>
     <row r="100" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7"/>
-      <c r="K100" s="7"/>
-      <c r="L100" s="7"/>
+      <c r="A100" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J100" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K100" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L100" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="M100" s="7"/>
       <c r="N100" s="7"/>
       <c r="O100" s="7"/>
@@ -6764,18 +8251,42 @@
       <c r="T100" s="7"/>
     </row>
     <row r="101" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="7"/>
-      <c r="L101" s="7"/>
+      <c r="A101" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J101" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L101" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="M101" s="7"/>
       <c r="N101" s="7"/>
       <c r="O101" s="7"/>
